--- a/data/trans_orig/P35A_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P35A_2023-Edad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>47741</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>29188</v>
+        <v>29426</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>70018</v>
+        <v>71444</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1170711207209098</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07157616089260775</v>
+        <v>0.07215847006275099</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1716996185576765</v>
+        <v>0.1751979001151418</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>21</v>
@@ -762,19 +762,19 @@
         <v>41230</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>26894</v>
+        <v>27270</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>61803</v>
+        <v>59272</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1137335169799269</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0741873868957381</v>
+        <v>0.07522630421889612</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1704866772742866</v>
+        <v>0.1635026265488615</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>41</v>
@@ -783,19 +783,19 @@
         <v>88971</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>64574</v>
+        <v>64379</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>123662</v>
+        <v>119156</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1155004165651518</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08382909371446044</v>
+        <v>0.08357591678527755</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1605366611034727</v>
+        <v>0.1546864045040114</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>8788</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2662</v>
+        <v>2514</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>23785</v>
+        <v>21799</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02154950952291996</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.006527344848470458</v>
+        <v>0.006164614823683583</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.05832528897735945</v>
+        <v>0.05345597508831624</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>4</v>
@@ -833,19 +833,19 @@
         <v>5598</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1314</v>
+        <v>1343</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>13077</v>
+        <v>13064</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01544284590825878</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.003623745321356264</v>
+        <v>0.003703735851692798</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.0360729067996523</v>
+        <v>0.03603818784895224</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>8</v>
@@ -854,19 +854,19 @@
         <v>14386</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>6384</v>
+        <v>6789</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>27748</v>
+        <v>29902</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01867566269695146</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.008287706902458364</v>
+        <v>0.00881301721081092</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03602273910099584</v>
+        <v>0.03881887502159997</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>23931</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>11259</v>
+        <v>11936</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>45159</v>
+        <v>46330</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.05868536666342263</v>
+        <v>0.05868536666342261</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.02760911029678356</v>
+        <v>0.0292698552735292</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1107405374700807</v>
+        <v>0.1136114670721003</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>22</v>
@@ -904,19 +904,19 @@
         <v>42694</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>27958</v>
+        <v>25445</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>64060</v>
+        <v>60969</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.117772708148822</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.07712219354375234</v>
+        <v>0.0701908197362873</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1767102433674956</v>
+        <v>0.1681857155355298</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>31</v>
@@ -925,19 +925,19 @@
         <v>66625</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>44910</v>
+        <v>46376</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>95601</v>
+        <v>95451</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.08649236234843923</v>
+        <v>0.08649236234843921</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.05830166454774875</v>
+        <v>0.06020428853810452</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1241083802791617</v>
+        <v>0.1239131966505356</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>327333</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>299254</v>
+        <v>297336</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>349195</v>
+        <v>349776</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.8026940030927477</v>
+        <v>0.8026940030927475</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7338380826075452</v>
+        <v>0.7291340920020192</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8563037248604356</v>
+        <v>0.8577301901190563</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>160</v>
@@ -975,19 +975,19 @@
         <v>272990</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>246746</v>
+        <v>249459</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>294318</v>
+        <v>294711</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.7530509289629923</v>
+        <v>0.7530509289629924</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6806554014511031</v>
+        <v>0.6881397383294614</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8118854663951488</v>
+        <v>0.8129696484575475</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>299</v>
@@ -996,19 +996,19 @@
         <v>600323</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>565598</v>
+        <v>562711</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>634648</v>
+        <v>632982</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.7793315583894577</v>
+        <v>0.7793315583894576</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7342524527584146</v>
+        <v>0.7305045518123152</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8238921591903469</v>
+        <v>0.8217287508480026</v>
       </c>
     </row>
     <row r="8">
@@ -1100,19 +1100,19 @@
         <v>38950</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>25297</v>
+        <v>25373</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>56203</v>
+        <v>57305</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.08167439273640227</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.05304483222391546</v>
+        <v>0.05320550390036063</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1178533779760302</v>
+        <v>0.1201643127101025</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>38</v>
@@ -1121,19 +1121,19 @@
         <v>39343</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>28592</v>
+        <v>28441</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>53818</v>
+        <v>52014</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.07851503667283638</v>
+        <v>0.07851503667283637</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.05706127076361926</v>
+        <v>0.05675837523935725</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1074033708877505</v>
+        <v>0.1038023175246401</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>63</v>
@@ -1142,19 +1142,19 @@
         <v>78292</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>60248</v>
+        <v>60236</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>100469</v>
+        <v>100612</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.08005563708165898</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.0616052022351669</v>
+        <v>0.06159294913052667</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1027322577877882</v>
+        <v>0.1028777398520812</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>18105</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>10718</v>
+        <v>10300</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>29633</v>
+        <v>28955</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03796418335563245</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02247413423304484</v>
+        <v>0.02159751734076099</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06213746245156538</v>
+        <v>0.06071627952248287</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>13</v>
@@ -1192,19 +1192,19 @@
         <v>14084</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>6929</v>
+        <v>7384</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>22194</v>
+        <v>24007</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02810782497677448</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01382844984393618</v>
+        <v>0.01473608109471158</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0442927154473743</v>
+        <v>0.04791104420124491</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>27</v>
@@ -1213,19 +1213,19 @@
         <v>32189</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>21812</v>
+        <v>22267</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>46575</v>
+        <v>46265</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0329140922801287</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02230281249606007</v>
+        <v>0.02276814672389083</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04762451733913097</v>
+        <v>0.04730721759694265</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>59412</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>41472</v>
+        <v>42206</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>80877</v>
+        <v>81973</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1245818606920868</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.08696344977122462</v>
+        <v>0.08850226190954293</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1695919291458422</v>
+        <v>0.1718900500039563</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>64</v>
@@ -1263,19 +1263,19 @@
         <v>72944</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>56887</v>
+        <v>57330</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>92453</v>
+        <v>90993</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1455722622626745</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1135272274292039</v>
+        <v>0.114412273954201</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1845064207238983</v>
+        <v>0.1815930308616636</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>100</v>
@@ -1284,19 +1284,19 @@
         <v>132356</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>109530</v>
+        <v>109042</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>161671</v>
+        <v>159844</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1353366887501091</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1119967148950522</v>
+        <v>0.1114982005802139</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1653125937228462</v>
+        <v>0.1634442678115038</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>360424</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>336957</v>
+        <v>334246</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>386394</v>
+        <v>382929</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.7557795632158785</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7065707051547641</v>
+        <v>0.7008866542526516</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8102361493712663</v>
+        <v>0.8029722614869759</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>345</v>
@@ -1334,19 +1334,19 @@
         <v>374712</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>352673</v>
+        <v>353568</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>393893</v>
+        <v>393293</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.7478048760877145</v>
+        <v>0.7478048760877146</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.7038222560088079</v>
+        <v>0.7056085851272189</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.7860828318216084</v>
+        <v>0.7848862063018081</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>572</v>
@@ -1355,19 +1355,19 @@
         <v>735136</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>701528</v>
+        <v>704352</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>767480</v>
+        <v>768117</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.7516935818881032</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.7173288990244027</v>
+        <v>0.7202164537047648</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.7847660420695274</v>
+        <v>0.7854178757234243</v>
       </c>
     </row>
     <row r="13">
@@ -1459,19 +1459,19 @@
         <v>50860</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>38216</v>
+        <v>36527</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>68636</v>
+        <v>65951</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.08192165055419197</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.06155538906105567</v>
+        <v>0.05883514551817055</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1105543147207769</v>
+        <v>0.1062283734444038</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>60</v>
@@ -1480,19 +1480,19 @@
         <v>46911</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>36686</v>
+        <v>36027</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>59106</v>
+        <v>59029</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.07540266487213543</v>
+        <v>0.07540266487213544</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.05896789872171486</v>
+        <v>0.05790813645786316</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.09500391983802742</v>
+        <v>0.09487996484891124</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>104</v>
@@ -1501,19 +1501,19 @@
         <v>97771</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>80016</v>
+        <v>80293</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>116405</v>
+        <v>118069</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.07865874231643467</v>
+        <v>0.07865874231643466</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.06437487357766947</v>
+        <v>0.06459751050125266</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.09365043375363169</v>
+        <v>0.09498880730531595</v>
       </c>
     </row>
     <row r="15">
@@ -1530,19 +1530,19 @@
         <v>15952</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>8858</v>
+        <v>9404</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>25393</v>
+        <v>25722</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.02569409733429657</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.0142675011696335</v>
+        <v>0.01514735576054919</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.04090141490811364</v>
+        <v>0.04143135252501612</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>31</v>
@@ -1551,19 +1551,19 @@
         <v>23745</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>16769</v>
+        <v>15713</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>33244</v>
+        <v>32380</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.03816657152083942</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.02695371122173683</v>
+        <v>0.0252560715532869</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.05343566948520049</v>
+        <v>0.05204627987079723</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>46</v>
@@ -1572,19 +1572,19 @@
         <v>39697</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>29932</v>
+        <v>28797</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>52440</v>
+        <v>52863</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.03193686894836879</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.0240806374856819</v>
+        <v>0.0231675071356969</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.04218936345324935</v>
+        <v>0.04252960739307546</v>
       </c>
     </row>
     <row r="16">
@@ -1601,19 +1601,19 @@
         <v>96663</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>78937</v>
+        <v>79963</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>117114</v>
+        <v>118118</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1556973924093309</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1271459507931894</v>
+        <v>0.1287989072863917</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1886390454520842</v>
+        <v>0.1902565984230557</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>155</v>
@@ -1622,19 +1622,19 @@
         <v>118079</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>102228</v>
+        <v>102450</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>134939</v>
+        <v>136826</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1897951474672182</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1643162627883531</v>
+        <v>0.1646745124996772</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2168948792794193</v>
+        <v>0.2199291193256774</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>239</v>
@@ -1643,19 +1643,19 @@
         <v>214742</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>189429</v>
+        <v>190917</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>240206</v>
+        <v>240127</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1727641342758834</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1523999223928771</v>
+        <v>0.1535968308573557</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1932509336977027</v>
+        <v>0.1931875396606533</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>457362</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>433293</v>
+        <v>433510</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>478775</v>
+        <v>478348</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7366868597021806</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.697917669125125</v>
+        <v>0.6982673307565912</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7711773762519344</v>
+        <v>0.7704893533848703</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>600</v>
@@ -1693,19 +1693,19 @@
         <v>433404</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>413606</v>
+        <v>412233</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>453030</v>
+        <v>452612</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.696635616139807</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6648128259005445</v>
+        <v>0.6626058871101026</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7281813948676378</v>
+        <v>0.7275090939963651</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1003</v>
@@ -1714,19 +1714,19 @@
         <v>890767</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>859990</v>
+        <v>859434</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>923115</v>
+        <v>919301</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.7166402544593131</v>
+        <v>0.716640254459313</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6918798498050114</v>
+        <v>0.6914322184865087</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7426653019673783</v>
+        <v>0.7395964986783468</v>
       </c>
     </row>
     <row r="18">
@@ -1818,19 +1818,19 @@
         <v>48446</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>35252</v>
+        <v>36072</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>62636</v>
+        <v>63671</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.06914794644007009</v>
+        <v>0.06914794644007008</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.05031515628642074</v>
+        <v>0.05148560719066785</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.08940064046742546</v>
+        <v>0.0908790763479443</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>64</v>
@@ -1839,19 +1839,19 @@
         <v>44132</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>34518</v>
+        <v>34276</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>55478</v>
+        <v>54912</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.05992110258436219</v>
+        <v>0.05992110258436218</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04686804705360452</v>
+        <v>0.0465398140020572</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.07532672214602225</v>
+        <v>0.07455840720418867</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>107</v>
@@ -1860,19 +1860,19 @@
         <v>92578</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>75331</v>
+        <v>76284</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>111746</v>
+        <v>110578</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.06441934934995952</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.05241809838393966</v>
+        <v>0.05308125545404513</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.07775719681721684</v>
+        <v>0.07694447340249705</v>
       </c>
     </row>
     <row r="20">
@@ -1889,19 +1889,19 @@
         <v>16252</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>9681</v>
+        <v>9219</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>26694</v>
+        <v>25907</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.02319695511335111</v>
+        <v>0.0231969551133511</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01381850051294372</v>
+        <v>0.01315833443745836</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03810068793358573</v>
+        <v>0.03697692698533067</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>35</v>
@@ -1910,19 +1910,19 @@
         <v>25312</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>17756</v>
+        <v>17419</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>34661</v>
+        <v>34333</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.0343680802596729</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.02410855178449444</v>
+        <v>0.02365082631338602</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.04706254858140267</v>
+        <v>0.04661611391614028</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>50</v>
@@ -1931,19 +1931,19 @@
         <v>41564</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>31079</v>
+        <v>31112</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>54845</v>
+        <v>53633</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.02892196256836299</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.02162606098890783</v>
+        <v>0.02164888070108697</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.03816318852645794</v>
+        <v>0.03731978157720887</v>
       </c>
     </row>
     <row r="21">
@@ -1960,19 +1960,19 @@
         <v>181877</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>160432</v>
+        <v>158285</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>211483</v>
+        <v>206227</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2595957518632316</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2289872613372097</v>
+        <v>0.2259224761762115</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3018530076794155</v>
+        <v>0.2943500979054124</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>275</v>
@@ -1981,19 +1981,19 @@
         <v>186089</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>168056</v>
+        <v>166828</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>204547</v>
+        <v>204492</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.252668039193805</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2281834101985326</v>
+        <v>0.2265162200107628</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2777297393711041</v>
+        <v>0.2776550204370961</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>437</v>
@@ -2002,19 +2002,19 @@
         <v>367966</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>337932</v>
+        <v>337666</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>398929</v>
+        <v>398114</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.256045419541361</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2351465256444391</v>
+        <v>0.2349614827302607</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.277590700675137</v>
+        <v>0.2770239313225832</v>
       </c>
     </row>
     <row r="22">
@@ -2031,19 +2031,19 @@
         <v>454041</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>422625</v>
+        <v>428665</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>476894</v>
+        <v>482614</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.6480593465833473</v>
+        <v>0.6480593465833471</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6032179063865205</v>
+        <v>0.6118398938977083</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6806768286587035</v>
+        <v>0.6888419246245311</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>766</v>
@@ -2052,19 +2052,19 @@
         <v>480963</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>461086</v>
+        <v>459363</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>501485</v>
+        <v>501978</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.6530427779621599</v>
+        <v>0.6530427779621598</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6260548446964395</v>
+        <v>0.6237155284873566</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6809079432991955</v>
+        <v>0.6815774042825067</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1211</v>
@@ -2073,19 +2073,19 @@
         <v>935004</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>901054</v>
+        <v>903032</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>969797</v>
+        <v>969152</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.6506132685403163</v>
+        <v>0.6506132685403165</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.626989163699194</v>
+        <v>0.6283660735948876</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6748237043493823</v>
+        <v>0.6743749608682674</v>
       </c>
     </row>
     <row r="23">
@@ -2177,19 +2177,19 @@
         <v>52796</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>40539</v>
+        <v>39732</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>67423</v>
+        <v>66895</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.08664395753792244</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.0665294516799841</v>
+        <v>0.06520355518567381</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.110647714369681</v>
+        <v>0.1097815273643103</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>53</v>
@@ -2198,19 +2198,19 @@
         <v>34977</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>26366</v>
+        <v>27205</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>45002</v>
+        <v>45322</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.05744698909592737</v>
+        <v>0.05744698909592739</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.04330374145555869</v>
+        <v>0.04468181634918054</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.07391296806404286</v>
+        <v>0.07443732242508541</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>108</v>
@@ -2219,19 +2219,19 @@
         <v>87773</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>72898</v>
+        <v>71594</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>104948</v>
+        <v>106167</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.07205135780186747</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.05984105880952412</v>
+        <v>0.05877031344221618</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.0861495935430422</v>
+        <v>0.08715043013155264</v>
       </c>
     </row>
     <row r="25">
@@ -2248,19 +2248,19 @@
         <v>19370</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>12702</v>
+        <v>13022</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>28147</v>
+        <v>28674</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.03178858426305075</v>
+        <v>0.03178858426305076</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0208450134600147</v>
+        <v>0.02137001772333529</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04619289822418673</v>
+        <v>0.04705734730324606</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>38</v>
@@ -2269,19 +2269,19 @@
         <v>24063</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>17012</v>
+        <v>16964</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>32233</v>
+        <v>32316</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.03952094761959886</v>
+        <v>0.03952094761959887</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0279401690174523</v>
+        <v>0.02786139316879132</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05294069181587526</v>
+        <v>0.05307687446502905</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>62</v>
@@ -2290,19 +2290,19 @@
         <v>43433</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>33064</v>
+        <v>34034</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>55327</v>
+        <v>55553</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03565320752693558</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02714123457635677</v>
+        <v>0.02793790022490324</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04541724714682723</v>
+        <v>0.04560258355812313</v>
       </c>
     </row>
     <row r="26">
@@ -2319,19 +2319,19 @@
         <v>198956</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>176747</v>
+        <v>176879</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>221081</v>
+        <v>221228</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3265081649825793</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.290059609493363</v>
+        <v>0.2902764596492143</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3628171592899697</v>
+        <v>0.3630587929859215</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>290</v>
@@ -2340,19 +2340,19 @@
         <v>183590</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>164741</v>
+        <v>165862</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>202318</v>
+        <v>201379</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.3015335467376694</v>
+        <v>0.3015335467376695</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2705756923911747</v>
+        <v>0.2724160068502322</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3322932981271517</v>
+        <v>0.3307511060576504</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>510</v>
@@ -2361,19 +2361,19 @@
         <v>382547</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>354362</v>
+        <v>353093</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>411873</v>
+        <v>411309</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3140258893541086</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2908890397748142</v>
+        <v>0.2898479463027878</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3380989136728596</v>
+        <v>0.3376358141517689</v>
       </c>
     </row>
     <row r="27">
@@ -2390,19 +2390,19 @@
         <v>338223</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>315003</v>
+        <v>316040</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>361412</v>
+        <v>360357</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.5550592932164474</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.5169526086991532</v>
+        <v>0.5186540865726766</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.5931147789231911</v>
+        <v>0.5913828436522556</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>621</v>
@@ -2411,19 +2411,19 @@
         <v>366225</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>348232</v>
+        <v>348177</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>384702</v>
+        <v>385177</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>0.6014985165468042</v>
+        <v>0.6014985165468043</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.5719452629159867</v>
+        <v>0.5718561186740541</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.6318442592423934</v>
+        <v>0.6326244326366214</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>985</v>
@@ -2432,19 +2432,19 @@
         <v>704449</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>674868</v>
+        <v>674438</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>732469</v>
+        <v>735872</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.5782695453170884</v>
+        <v>0.5782695453170885</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.5539867026929376</v>
+        <v>0.5536342296743467</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.6012703310592513</v>
+        <v>0.6040636278730988</v>
       </c>
     </row>
     <row r="28">
@@ -2536,19 +2536,19 @@
         <v>35040</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>26234</v>
+        <v>26048</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>46672</v>
+        <v>45068</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.08607749453451929</v>
+        <v>0.08607749453451928</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.06444461263382549</v>
+        <v>0.06398629753737255</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1146506511544824</v>
+        <v>0.1107102282457749</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>52</v>
@@ -2557,19 +2557,19 @@
         <v>29834</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>23126</v>
+        <v>22380</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>38744</v>
+        <v>38931</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.06793304678987749</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.05265993229410815</v>
+        <v>0.05096034627300763</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.08822130455973222</v>
+        <v>0.08864803925906038</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>99</v>
@@ -2578,19 +2578,19 @@
         <v>64874</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>53610</v>
+        <v>53426</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>79261</v>
+        <v>78334</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.07666128609771372</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.06335036833258152</v>
+        <v>0.06313329553665971</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.09366143678011238</v>
+        <v>0.09256609101365763</v>
       </c>
     </row>
     <row r="30">
@@ -2607,19 +2607,19 @@
         <v>13191</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>7742</v>
+        <v>8186</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>19972</v>
+        <v>19864</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.03240444153045866</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.01901921357832086</v>
+        <v>0.0201078795836035</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.04906133852334644</v>
+        <v>0.04879629362699319</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>18</v>
@@ -2628,19 +2628,19 @@
         <v>10685</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>6456</v>
+        <v>6303</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>16163</v>
+        <v>16469</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.02432972326886317</v>
+        <v>0.02432972326886316</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.01470009087949896</v>
+        <v>0.01435231722591351</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.03680275698629298</v>
+        <v>0.03749969517357878</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>37</v>
@@ -2649,19 +2649,19 @@
         <v>23876</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>16531</v>
+        <v>17080</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>32177</v>
+        <v>32783</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.02821400094556311</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.0195344196711612</v>
+        <v>0.02018336799256683</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.0380228094835915</v>
+        <v>0.03873982118907507</v>
       </c>
     </row>
     <row r="31">
@@ -2678,19 +2678,19 @@
         <v>154224</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>137894</v>
+        <v>138338</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>170323</v>
+        <v>171393</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.3788541099455133</v>
+        <v>0.3788541099455134</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.3387403306884925</v>
+        <v>0.3398311900816312</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.4184011696411312</v>
+        <v>0.4210304788810372</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>302</v>
@@ -2699,19 +2699,19 @@
         <v>164377</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>150655</v>
+        <v>149015</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>180332</v>
+        <v>180248</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.3742945932840024</v>
+        <v>0.3742945932840023</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.3430481840103425</v>
+        <v>0.3393145225471504</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.4106246859117947</v>
+        <v>0.4104320634300677</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>523</v>
@@ -2720,19 +2720,19 @@
         <v>318601</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>296451</v>
+        <v>295939</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>340564</v>
+        <v>340707</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.3764879117641134</v>
+        <v>0.3764879117641135</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.3503124707860888</v>
+        <v>0.3497082435569611</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.4024405696747107</v>
+        <v>0.4026098463756981</v>
       </c>
     </row>
     <row r="32">
@@ -2749,19 +2749,19 @@
         <v>204624</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>189102</v>
+        <v>187543</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>221600</v>
+        <v>223055</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.5026639539895087</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.4645329062974169</v>
+        <v>0.4607025017447006</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.5443644240312083</v>
+        <v>0.5479399021854293</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>455</v>
@@ -2770,19 +2770,19 @@
         <v>234270</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>218247</v>
+        <v>217853</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>249063</v>
+        <v>249364</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.5334426366572571</v>
+        <v>0.533442636657257</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.4969581170464525</v>
+        <v>0.4960600315280371</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.5671273957866598</v>
+        <v>0.567811743943879</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>738</v>
@@ -2791,19 +2791,19 @@
         <v>438894</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>415754</v>
+        <v>413658</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>461031</v>
+        <v>463192</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.5186368011926097</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.4912925835482898</v>
+        <v>0.4888155304804586</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.5447959833005681</v>
+        <v>0.5473495148089047</v>
       </c>
     </row>
     <row r="33">
@@ -2895,19 +2895,19 @@
         <v>23787</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>16851</v>
+        <v>17000</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>32046</v>
+        <v>33909</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.07668269122347431</v>
+        <v>0.07668269122347429</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.05432276190052394</v>
+        <v>0.05480439014826685</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1033067610690434</v>
+        <v>0.1093149356075372</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>54</v>
@@ -2916,19 +2916,19 @@
         <v>30807</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>23384</v>
+        <v>23346</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>39148</v>
+        <v>39053</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.06645033593361506</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.05043901058702136</v>
+        <v>0.05035747669638957</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.08444356191247269</v>
+        <v>0.0842388063974534</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>86</v>
@@ -2937,19 +2937,19 @@
         <v>54593</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>44716</v>
+        <v>42780</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>66666</v>
+        <v>66670</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.07055223834550556</v>
+        <v>0.07055223834550554</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.05778716841806929</v>
+        <v>0.055285093035595</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.08615320929037294</v>
+        <v>0.08615842137625979</v>
       </c>
     </row>
     <row r="35">
@@ -2966,19 +2966,19 @@
         <v>6910</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>3451</v>
+        <v>3431</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>11910</v>
+        <v>12610</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.0222775692124739</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.01112665975147198</v>
+        <v>0.01105992958295291</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.03839346750188177</v>
+        <v>0.04065057916405974</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>20</v>
@@ -2987,19 +2987,19 @@
         <v>10827</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>6752</v>
+        <v>6790</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>16329</v>
+        <v>16627</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>0.02335450043090079</v>
+        <v>0.02335450043090078</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.01456504209028279</v>
+        <v>0.01464713531836488</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.03522225061045862</v>
+        <v>0.03586391147274628</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>30</v>
@@ -3008,19 +3008,19 @@
         <v>17738</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>11874</v>
+        <v>12341</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>25066</v>
+        <v>24871</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.02292278489355199</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.01534451628665248</v>
+        <v>0.01594848692949943</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.03239304058291096</v>
+        <v>0.03214109320251449</v>
       </c>
     </row>
     <row r="36">
@@ -3037,19 +3037,19 @@
         <v>131473</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>116953</v>
+        <v>117020</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>146854</v>
+        <v>145777</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.4238345561911857</v>
+        <v>0.4238345561911856</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.3770282680731998</v>
+        <v>0.377244075977355</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.4734202570295502</v>
+        <v>0.4699496153466163</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>368</v>
@@ -3058,19 +3058,19 @@
         <v>194098</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>175828</v>
+        <v>178183</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>210555</v>
+        <v>210786</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.4186727213129819</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.3792624747516915</v>
+        <v>0.3843434372490377</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.4541701870780504</v>
+        <v>0.454667752305386</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>570</v>
@@ -3079,19 +3079,19 @@
         <v>325571</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>305559</v>
+        <v>305110</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>346678</v>
+        <v>348102</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.4207419753934836</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.3948801463575242</v>
+        <v>0.3942997330796532</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.448019531797791</v>
+        <v>0.4498597634289581</v>
       </c>
     </row>
     <row r="37">
@@ -3108,19 +3108,19 @@
         <v>148028</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>134069</v>
+        <v>133849</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>163964</v>
+        <v>164381</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.477205183372866</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.4322046777759789</v>
+        <v>0.4314942354385528</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.5285799892602675</v>
+        <v>0.529922491908708</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>437</v>
@@ -3129,19 +3129,19 @@
         <v>227872</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>211553</v>
+        <v>210729</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>244940</v>
+        <v>244218</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.4915224423225023</v>
+        <v>0.4915224423225022</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.4563232575607705</v>
+        <v>0.4545442431051844</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.5283396755628615</v>
+        <v>0.5267820962467183</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>651</v>
@@ -3150,19 +3150,19 @@
         <v>375900</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>354163</v>
+        <v>353750</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>397138</v>
+        <v>399102</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.4857830013674588</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.4576923304234709</v>
+        <v>0.4571584191705577</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.5132292785292411</v>
+        <v>0.5157677723323117</v>
       </c>
     </row>
     <row r="38">
@@ -3254,19 +3254,19 @@
         <v>297620</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>264872</v>
+        <v>262274</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>335238</v>
+        <v>335890</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.08424574984161104</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.07497585649583571</v>
+        <v>0.07424046541218447</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.0948940809730015</v>
+        <v>0.09507847592093716</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>342</v>
@@ -3275,19 +3275,19 @@
         <v>267232</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>241076</v>
+        <v>239380</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>300048</v>
+        <v>297336</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.0715700887154652</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.06456497772758174</v>
+        <v>0.06411075012064152</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.08035875472720545</v>
+        <v>0.07963244599481598</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>608</v>
@@ -3296,19 +3296,19 @@
         <v>564853</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>519471</v>
+        <v>515163</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>611546</v>
+        <v>610620</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.07773252946257569</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.0714873087712385</v>
+        <v>0.07089446198075686</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.08415828443588036</v>
+        <v>0.08403079886359258</v>
       </c>
     </row>
     <row r="40">
@@ -3325,19 +3325,19 @@
         <v>98568</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>80952</v>
+        <v>79121</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>122482</v>
+        <v>121258</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.0279012385636864</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.02291478655704165</v>
+        <v>0.02239643120053146</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.0346703391859377</v>
+        <v>0.03432393369947224</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>159</v>
@@ -3346,19 +3346,19 @@
         <v>114314</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>96186</v>
+        <v>98016</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>132363</v>
+        <v>132681</v>
       </c>
       <c r="N40" s="6" t="n">
-        <v>0.03061554136673065</v>
+        <v>0.03061554136673066</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.02576054390972561</v>
+        <v>0.02625064747338164</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.03544940549438344</v>
+        <v>0.03553448397359127</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>260</v>
@@ -3367,19 +3367,19 @@
         <v>212882</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>186767</v>
+        <v>185633</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>240257</v>
+        <v>240847</v>
       </c>
       <c r="U40" s="6" t="n">
-        <v>0.0292959470649412</v>
+        <v>0.02929594706494119</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.02570200606029681</v>
+        <v>0.0255460468893374</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.03306317641252341</v>
+        <v>0.0331443668748887</v>
       </c>
     </row>
     <row r="41">
@@ -3396,19 +3396,19 @@
         <v>846536</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>789061</v>
+        <v>792674</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>898571</v>
+        <v>898991</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.2396245410183975</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.2233551529178308</v>
+        <v>0.2243780164490758</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2543536004030308</v>
+        <v>0.2544726399788831</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>1476</v>
@@ -3417,19 +3417,19 @@
         <v>961872</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>915187</v>
+        <v>916641</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>1008867</v>
+        <v>1007055</v>
       </c>
       <c r="N41" s="6" t="n">
-        <v>0.2576082088286336</v>
+        <v>0.2576082088286337</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.2451052359550338</v>
+        <v>0.2454945620089546</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.2701945947822679</v>
+        <v>0.2697093077685506</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>2410</v>
@@ -3438,19 +3438,19 @@
         <v>1808408</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>1738680</v>
+        <v>1737677</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>1878561</v>
+        <v>1887439</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.2488652102431235</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.2392695391154132</v>
+        <v>0.2391314305346858</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.2585193848208021</v>
+        <v>0.2597410414877781</v>
       </c>
     </row>
     <row r="42">
@@ -3467,19 +3467,19 @@
         <v>2290037</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>2227445</v>
+        <v>2230477</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>2350975</v>
+        <v>2354681</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.6482284705763052</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.6305108853647835</v>
+        <v>0.6313692233908293</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.6654779175697674</v>
+        <v>0.6665270050377792</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>3384</v>
@@ -3488,19 +3488,19 @@
         <v>2390437</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>2337215</v>
+        <v>2337872</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>2440845</v>
+        <v>2438149</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.6402061610891705</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.6259521665587676</v>
+        <v>0.6261281954963321</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.6537063872769995</v>
+        <v>0.6529842647097274</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>5459</v>
@@ -3509,19 +3509,19 @@
         <v>4680474</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>4592283</v>
+        <v>4595075</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>4759228</v>
+        <v>4758270</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.6441063132293595</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.6319698091666971</v>
+        <v>0.6323540796863325</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.6549440606433727</v>
+        <v>0.6548123123544214</v>
       </c>
     </row>
     <row r="43">
